--- a/household-size/data/household-size-by-re-singleperson.xlsx
+++ b/household-size/data/household-size-by-re-singleperson.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">DATA_YEAR</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">White alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Total Multiple Races</t>
@@ -529,13 +526,13 @@
         <v>2217</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00474591074605203</v>
+        <v>0.464974832214765</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00474034984936507</v>
+        <v>0.268207113476893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00474034984936507</v>
+        <v>0.499211889214141</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -570,13 +567,13 @@
         <v>57576</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123147499994648</v>
+        <v>0.279954449673215</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123107976060913</v>
+        <v>0.245624064127778</v>
       </c>
       <c r="J3" t="n">
-        <v>0.123107976060913</v>
+        <v>0.283833947084313</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -611,13 +608,13 @@
         <v>31284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0667638540134735</v>
+        <v>0.409500925670619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0668908907025425</v>
+        <v>0.348343132014965</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0668908907025425</v>
+        <v>0.419981473774651</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -652,13 +649,13 @@
         <v>28021</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0598515645236214</v>
+        <v>0.284917965963518</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0599140023135131</v>
+        <v>0.203323295722527</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0599140023135131</v>
+        <v>0.289886408309367</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -693,13 +690,13 @@
         <v>1316</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00281714864312335</v>
+        <v>0.175818303273213</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00281384772294291</v>
+        <v>0.126648060821865</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00281384772294291</v>
+        <v>0.185273827960017</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -734,13 +731,13 @@
         <v>2666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00570708076182892</v>
+        <v>0.378263337116913</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00570039363933571</v>
+        <v>0.306190421499943</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00570039363933571</v>
+        <v>0.386544874583152</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -775,13 +772,13 @@
         <v>27739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0593806126227954</v>
+        <v>0.550748520827542</v>
       </c>
       <c r="I8" t="n">
-        <v>0.059311034944311</v>
+        <v>0.296756317264694</v>
       </c>
       <c r="J8" t="n">
-        <v>0.059311034944311</v>
+        <v>0.576646432729087</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -816,13 +813,13 @@
         <v>316868</v>
       </c>
       <c r="H9" t="n">
-        <v>0.677586328694457</v>
+        <v>0.32562429145466</v>
       </c>
       <c r="I9" t="n">
-        <v>0.677521504767077</v>
+        <v>0.285274170852281</v>
       </c>
       <c r="J9" t="n">
-        <v>0.677521504767077</v>
+        <v>0.332482718386294</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -848,22 +845,22 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>467139</v>
+        <v>27739</v>
       </c>
       <c r="F10" t="n">
-        <v>467687</v>
+        <v>27739</v>
       </c>
       <c r="G10" t="n">
-        <v>467687</v>
+        <v>27739</v>
       </c>
       <c r="H10" t="n">
-        <v>0.275933257016484</v>
+        <v>0.0861992349309045</v>
       </c>
       <c r="I10" t="n">
-        <v>0.27614685020285</v>
+        <v>0.296756317264694</v>
       </c>
       <c r="J10" t="n">
-        <v>0.27614685020285</v>
+        <v>0.0796781735978262</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -889,22 +886,22 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>27739</v>
+        <v>150612</v>
       </c>
       <c r="F11" t="n">
-        <v>27739</v>
+        <v>150819</v>
       </c>
       <c r="G11" t="n">
-        <v>27739</v>
+        <v>150819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0593806126227954</v>
+        <v>0.208927976917101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.059311034944311</v>
+        <v>0.258753268321472</v>
       </c>
       <c r="J11" t="n">
-        <v>0.059311034944311</v>
+        <v>0.20364956702913</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -913,47 +910,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>150612</v>
-      </c>
-      <c r="F12" t="n">
-        <v>150819</v>
-      </c>
-      <c r="G12" t="n">
-        <v>150819</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.322035891525743</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.322478495232923</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.322478495232923</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1017,13 +973,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>262</v>
@@ -1035,13 +991,13 @@
         <v>262</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00363641410706602</v>
+        <v>0.296715741789354</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00362971377905849</v>
+        <v>0.148694665153235</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00362971377905849</v>
+        <v>0.316807738814994</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -1058,13 +1014,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>5529</v>
@@ -1076,13 +1032,13 @@
         <v>5542</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0767394412136185</v>
+        <v>0.175993124522536</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0767781441356571</v>
+        <v>0.155394795872589</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0767781441356571</v>
+        <v>0.177890479553187</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -1099,13 +1055,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
         <v>2281</v>
@@ -1117,13 +1073,13 @@
         <v>2377</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0316590098405252</v>
+        <v>0.289283449587825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0329306475298551</v>
+        <v>0.234071885770556</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0329306475298551</v>
+        <v>0.302417302798982</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -1140,13 +1096,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>3754</v>
@@ -1158,13 +1114,13 @@
         <v>3754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.052103429610404</v>
+        <v>0.205091783216783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0520074256739907</v>
+        <v>0.150938844437296</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0520074256739907</v>
+        <v>0.210178601422093</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1181,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>119</v>
@@ -1199,22 +1155,22 @@
         <v>119</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00165165373565213</v>
+        <v>0.207678883071553</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00164861045690061</v>
+        <v>0.134767836919592</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00164861045690061</v>
+        <v>0.220779220779221</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1222,13 +1178,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>569</v>
@@ -1240,13 +1196,13 @@
         <v>569</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00789740315618537</v>
+        <v>0.4186902133922</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00788285168047436</v>
+        <v>0.31008174386921</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00788285168047436</v>
+        <v>0.426856714178545</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -1263,13 +1219,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>3409</v>
@@ -1281,13 +1237,13 @@
         <v>3409</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0473150217213285</v>
+        <v>0.462049335863378</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.238408280299322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.480140845070423</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -1304,13 +1260,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>56126</v>
@@ -1322,13 +1278,13 @@
         <v>56150</v>
       </c>
       <c r="H9" t="n">
-        <v>0.77899762661522</v>
+        <v>0.283797176489624</v>
       </c>
       <c r="I9" t="n">
-        <v>0.777894766008146</v>
+        <v>0.252520709846284</v>
       </c>
       <c r="J9" t="n">
-        <v>0.777894766008146</v>
+        <v>0.290778966556535</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1345,31 +1301,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>72049</v>
+        <v>3409</v>
       </c>
       <c r="F10" t="n">
-        <v>72182</v>
+        <v>3409</v>
       </c>
       <c r="G10" t="n">
-        <v>72182</v>
+        <v>3409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.23115298979127</v>
+        <v>0.0637124808432699</v>
       </c>
       <c r="I10" t="n">
-        <v>0.231480917303505</v>
+        <v>0.238408280299322</v>
       </c>
       <c r="J10" t="n">
-        <v>0.231480917303505</v>
+        <v>0.0576321617555071</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -1386,31 +1342,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>3409</v>
+        <v>15923</v>
       </c>
       <c r="F11" t="n">
-        <v>3409</v>
+        <v>16032</v>
       </c>
       <c r="G11" t="n">
-        <v>3409</v>
+        <v>16032</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0473150217213285</v>
+        <v>0.139766164001194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.179190557623311</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.135034744156665</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1419,47 +1375,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15923</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16032</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16032</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.220595162228811</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.222105233991854</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.222105233991854</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1529,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>2217</v>
@@ -1541,13 +1456,13 @@
         <v>2217</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00474591074605203</v>
+        <v>0.464974832214765</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00474034984936507</v>
+        <v>0.268207113476893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00474034984936507</v>
+        <v>0.499211889214141</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -1570,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>57527</v>
@@ -1582,13 +1497,13 @@
         <v>57576</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123147499994648</v>
+        <v>0.279954449673215</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123107976060913</v>
+        <v>0.245624064127778</v>
       </c>
       <c r="J3" t="n">
-        <v>0.123107976060913</v>
+        <v>0.283833947084313</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -1611,7 +1526,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>31188</v>
@@ -1623,13 +1538,13 @@
         <v>31284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0667638540134735</v>
+        <v>0.409500925670619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0668908907025425</v>
+        <v>0.348343132014965</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0668908907025425</v>
+        <v>0.419981473774651</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -1652,7 +1567,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>27959</v>
@@ -1664,13 +1579,13 @@
         <v>28021</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0598515645236214</v>
+        <v>0.284917965963518</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0599140023135131</v>
+        <v>0.203323295722527</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0599140023135131</v>
+        <v>0.289886408309367</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1693,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>1316</v>
@@ -1705,13 +1620,13 @@
         <v>1316</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00281714864312335</v>
+        <v>0.175818303273213</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00281384772294291</v>
+        <v>0.126648060821865</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00281384772294291</v>
+        <v>0.185273827960017</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -1734,7 +1649,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>2666</v>
@@ -1746,13 +1661,13 @@
         <v>2666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00570708076182892</v>
+        <v>0.378263337116913</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00570039363933571</v>
+        <v>0.306190421499943</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00570039363933571</v>
+        <v>0.386544874583152</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -1775,7 +1690,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>27739</v>
@@ -1787,13 +1702,13 @@
         <v>27739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0593806126227954</v>
+        <v>0.550748520827542</v>
       </c>
       <c r="I8" t="n">
-        <v>0.059311034944311</v>
+        <v>0.296756317264694</v>
       </c>
       <c r="J8" t="n">
-        <v>0.059311034944311</v>
+        <v>0.576646432729087</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -1816,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>316527</v>
@@ -1828,13 +1743,13 @@
         <v>316868</v>
       </c>
       <c r="H9" t="n">
-        <v>0.677586328694457</v>
+        <v>0.32562429145466</v>
       </c>
       <c r="I9" t="n">
-        <v>0.677521504767077</v>
+        <v>0.285274170852281</v>
       </c>
       <c r="J9" t="n">
-        <v>0.677521504767077</v>
+        <v>0.332482718386294</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1857,25 +1772,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>467139</v>
+        <v>27739</v>
       </c>
       <c r="F10" t="n">
-        <v>467687</v>
+        <v>27739</v>
       </c>
       <c r="G10" t="n">
-        <v>467687</v>
+        <v>27739</v>
       </c>
       <c r="H10" t="n">
-        <v>0.275933257016484</v>
+        <v>0.0861992349309045</v>
       </c>
       <c r="I10" t="n">
-        <v>0.27614685020285</v>
+        <v>0.296756317264694</v>
       </c>
       <c r="J10" t="n">
-        <v>0.27614685020285</v>
+        <v>0.0796781735978262</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -1898,25 +1813,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>27739</v>
+        <v>150612</v>
       </c>
       <c r="F11" t="n">
-        <v>27739</v>
+        <v>150819</v>
       </c>
       <c r="G11" t="n">
-        <v>27739</v>
+        <v>150819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0593806126227954</v>
+        <v>0.208927976917101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.059311034944311</v>
+        <v>0.258753268321472</v>
       </c>
       <c r="J11" t="n">
-        <v>0.059311034944311</v>
+        <v>0.20364956702913</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1925,47 +1840,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>150612</v>
-      </c>
-      <c r="F12" t="n">
-        <v>150819</v>
-      </c>
-      <c r="G12" t="n">
-        <v>150819</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.322035891525743</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.322478495232923</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.322478495232923</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2029,13 +1903,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>956</v>
@@ -2047,13 +1921,13 @@
         <v>956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00335577537366348</v>
+        <v>0.511503477795613</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00335257439839525</v>
+        <v>0.302819132087425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00335257439839525</v>
+        <v>0.574864702345159</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -2070,13 +1944,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>46417</v>
@@ -2088,13 +1962,13 @@
         <v>46453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.162934127112278</v>
+        <v>0.299673320765437</v>
       </c>
       <c r="I3" t="n">
-        <v>0.162904956619932</v>
+        <v>0.267366167270048</v>
       </c>
       <c r="J3" t="n">
-        <v>0.162904956619932</v>
+        <v>0.303059759916493</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -2111,13 +1985,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>21071</v>
@@ -2129,13 +2003,13 @@
         <v>21071</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0739639570067607</v>
+        <v>0.434579053747474</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0738934049671406</v>
+        <v>0.388119358997974</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0738934049671406</v>
+        <v>0.443618678681208</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -2152,13 +2026,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>17161</v>
@@ -2170,13 +2044,13 @@
         <v>17173</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0602389761374885</v>
+        <v>0.316734648677581</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0602235984766126</v>
+        <v>0.23180443820528</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0602235984766126</v>
+        <v>0.320792782022304</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -2193,13 +2067,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>811</v>
@@ -2211,13 +2085,13 @@
         <v>811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00284679270715595</v>
+        <v>0.216151385927505</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00284407723545873</v>
+        <v>0.159740003939334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00284407723545873</v>
+        <v>0.23324705205637</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -2234,13 +2108,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>1260</v>
@@ -2252,13 +2126,13 @@
         <v>1260</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00442288386068618</v>
+        <v>0.348066298342541</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00441866500206906</v>
+        <v>0.281312793034159</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00441866500206906</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -2275,13 +2149,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>17552</v>
@@ -2293,13 +2167,13 @@
         <v>17552</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0616114742244157</v>
+        <v>0.622587968217934</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.354750692240839</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.646339667108558</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -2316,13 +2190,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>179654</v>
@@ -2334,13 +2208,13 @@
         <v>179878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.630626013577551</v>
+        <v>0.36599397798992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.630810018446173</v>
+        <v>0.319207686055715</v>
       </c>
       <c r="J9" t="n">
-        <v>0.630810018446173</v>
+        <v>0.371664886286388</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -2357,31 +2231,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>284882</v>
+        <v>17552</v>
       </c>
       <c r="F10" t="n">
-        <v>285154</v>
+        <v>17552</v>
       </c>
       <c r="G10" t="n">
-        <v>285154</v>
+        <v>17552</v>
       </c>
       <c r="H10" t="n">
-        <v>0.307167956767341</v>
+        <v>0.10338023689341</v>
       </c>
       <c r="I10" t="n">
-        <v>0.307337298897093</v>
+        <v>0.354750692240839</v>
       </c>
       <c r="J10" t="n">
-        <v>0.307337298897093</v>
+        <v>0.0970796460176991</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -2398,31 +2272,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>17552</v>
+        <v>105228</v>
       </c>
       <c r="F11" t="n">
-        <v>17552</v>
+        <v>105276</v>
       </c>
       <c r="G11" t="n">
-        <v>17552</v>
+        <v>105276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0616114742244157</v>
+        <v>0.241027438207343</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.28897605590889</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.237192514453341</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -2431,47 +2305,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>105228</v>
-      </c>
-      <c r="F12" t="n">
-        <v>105276</v>
-      </c>
-      <c r="G12" t="n">
-        <v>105276</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.36902165145851</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.369189981553827</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.369189981553827</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2535,13 +2368,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>324</v>
@@ -2553,13 +2386,13 @@
         <v>324</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0128428729982559</v>
+        <v>0.527687296416938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0128326996197719</v>
+        <v>0.347639484978541</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0128326996197719</v>
+        <v>0.53910149750416</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -2576,13 +2409,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>698</v>
@@ -2594,13 +2427,13 @@
         <v>698</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0276676708419217</v>
+        <v>0.224871134020619</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0276457541191381</v>
+        <v>0.16528534217381</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0276457541191381</v>
+        <v>0.232821881254169</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -2617,13 +2450,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>735</v>
@@ -2635,13 +2468,13 @@
         <v>735</v>
       </c>
       <c r="H4" t="n">
-        <v>0.029134295227525</v>
+        <v>0.463430012610341</v>
       </c>
       <c r="I4" t="n">
-        <v>0.029111216730038</v>
+        <v>0.28812230497844</v>
       </c>
       <c r="J4" t="n">
-        <v>0.029111216730038</v>
+        <v>0.471153846153846</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -2658,13 +2491,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>1180</v>
@@ -2676,13 +2509,13 @@
         <v>1180</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0467734263516727</v>
+        <v>0.29979674796748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0467363751584284</v>
+        <v>0.163638885036749</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0467363751584284</v>
+        <v>0.302331539841148</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -2699,13 +2532,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
@@ -2717,22 +2550,22 @@
         <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00107023941652133</v>
+        <v>0.0838509316770186</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00106939163498099</v>
+        <v>0.0353866317169069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00106939163498099</v>
+        <v>0.0838509316770186</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -2740,13 +2573,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>339</v>
@@ -2758,22 +2591,22 @@
         <v>339</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0134374504518789</v>
+        <v>0.536392405063291</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0134268060836502</v>
+        <v>0.462482946793997</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0134268060836502</v>
+        <v>0.536392405063291</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -2781,13 +2614,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>1583</v>
@@ -2799,13 +2632,13 @@
         <v>1583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0627477406056762</v>
+        <v>0.509658725048294</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.275160785677038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.533535557802494</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -2822,13 +2655,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>20342</v>
@@ -2840,13 +2673,13 @@
         <v>20362</v>
       </c>
       <c r="H9" t="n">
-        <v>0.806326304106548</v>
+        <v>0.270027743485591</v>
       </c>
       <c r="I9" t="n">
-        <v>0.806479721166033</v>
+        <v>0.239277068791276</v>
       </c>
       <c r="J9" t="n">
-        <v>0.806479721166033</v>
+        <v>0.277079251034182</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -2863,31 +2696,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>25228</v>
+        <v>1583</v>
       </c>
       <c r="F10" t="n">
-        <v>25248</v>
+        <v>1583</v>
       </c>
       <c r="G10" t="n">
-        <v>25248</v>
+        <v>1583</v>
       </c>
       <c r="H10" t="n">
-        <v>0.235239267464847</v>
+        <v>0.0728922042639407</v>
       </c>
       <c r="I10" t="n">
-        <v>0.235381861575179</v>
+        <v>0.275160785677038</v>
       </c>
       <c r="J10" t="n">
-        <v>0.235381861575179</v>
+        <v>0.0666245791245791</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -2904,31 +2737,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="F11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="G11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0627477406056762</v>
+        <v>0.153113346494939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.22042768203555</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.144658929417338</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -2937,47 +2770,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3041,13 +2833,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>675</v>
@@ -3059,13 +2851,13 @@
         <v>675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00794304542245234</v>
+        <v>0.481455064194009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00793156527971987</v>
+        <v>0.279503105590062</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00793156527971987</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -3082,13 +2874,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>4883</v>
@@ -3100,13 +2892,13 @@
         <v>4883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0574605789597552</v>
+        <v>0.303763608087092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0573775307568476</v>
+        <v>0.235019492708283</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0573775307568476</v>
+        <v>0.316687204098839</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -3123,13 +2915,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>7101</v>
@@ -3141,13 +2933,13 @@
         <v>7101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0835608378441986</v>
+        <v>0.390079103493738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.083440066742653</v>
+        <v>0.311283534981589</v>
       </c>
       <c r="J4" t="n">
-        <v>0.083440066742653</v>
+        <v>0.40413180809288</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -3164,13 +2956,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>5864</v>
@@ -3182,13 +2974,13 @@
         <v>5914</v>
       </c>
       <c r="H5" t="n">
-        <v>0.069004471640386</v>
+        <v>0.270118384080335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0694922623174271</v>
+        <v>0.186862144143575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0694922623174271</v>
+        <v>0.276807863327873</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -3205,13 +2997,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>359</v>
@@ -3223,22 +3015,22 @@
         <v>359</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00422452341727465</v>
+        <v>0.126497533474278</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00421841768210286</v>
+        <v>0.0978735005452563</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00421841768210286</v>
+        <v>0.129837251356239</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -3246,13 +3038,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>498</v>
@@ -3264,13 +3056,13 @@
         <v>498</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00586020240056484</v>
+        <v>0.346555323590814</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0058517326063711</v>
+        <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0058517326063711</v>
+        <v>0.371364653243848</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -3287,13 +3079,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>5195</v>
@@ -3305,13 +3097,13 @@
         <v>5195</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0611320310661332</v>
+        <v>0.444396920444825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.216955523073711</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.477437735502252</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -3328,13 +3120,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>60405</v>
@@ -3346,13 +3138,13 @@
         <v>60478</v>
       </c>
       <c r="H9" t="n">
-        <v>0.710814309249235</v>
+        <v>0.29027607583075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.710644748128738</v>
+        <v>0.252223922862302</v>
       </c>
       <c r="J9" t="n">
-        <v>0.710644748128738</v>
+        <v>0.298705468051584</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -3369,31 +3161,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>84980</v>
+        <v>5195</v>
       </c>
       <c r="F10" t="n">
-        <v>85103</v>
+        <v>5195</v>
       </c>
       <c r="G10" t="n">
-        <v>85103</v>
+        <v>5195</v>
       </c>
       <c r="H10" t="n">
-        <v>0.245212187316949</v>
+        <v>0.0676458715835254</v>
       </c>
       <c r="I10" t="n">
-        <v>0.245462280613201</v>
+        <v>0.216955523073711</v>
       </c>
       <c r="J10" t="n">
-        <v>0.245462280613201</v>
+        <v>0.0615324481504732</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -3410,31 +3202,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>5195</v>
+        <v>24575</v>
       </c>
       <c r="F11" t="n">
-        <v>5195</v>
+        <v>24625</v>
       </c>
       <c r="G11" t="n">
-        <v>5195</v>
+        <v>24625</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0611320310661332</v>
+        <v>0.177485519492713</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.230299459439238</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.170724774331314</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -3443,47 +3235,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24575</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24625</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24625</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.288767728517209</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.289355251871262</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.289355251871262</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3547,13 +3298,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>262</v>
@@ -3565,13 +3316,13 @@
         <v>262</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00363641410706602</v>
+        <v>0.296715741789354</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00362971377905849</v>
+        <v>0.148694665153235</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00362971377905849</v>
+        <v>0.316807738814994</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -3588,13 +3339,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>5529</v>
@@ -3606,13 +3357,13 @@
         <v>5542</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0767394412136185</v>
+        <v>0.175993124522536</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0767781441356571</v>
+        <v>0.155394795872589</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0767781441356571</v>
+        <v>0.177890479553187</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -3629,13 +3380,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>2281</v>
@@ -3647,13 +3398,13 @@
         <v>2377</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0316590098405252</v>
+        <v>0.289283449587825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0329306475298551</v>
+        <v>0.234071885770556</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0329306475298551</v>
+        <v>0.302417302798982</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -3670,13 +3421,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
         <v>3754</v>
@@ -3688,13 +3439,13 @@
         <v>3754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.052103429610404</v>
+        <v>0.205091783216783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0520074256739907</v>
+        <v>0.150938844437296</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0520074256739907</v>
+        <v>0.210178601422093</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -3711,13 +3462,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>119</v>
@@ -3729,22 +3480,22 @@
         <v>119</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00165165373565213</v>
+        <v>0.207678883071553</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00164861045690061</v>
+        <v>0.134767836919592</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00164861045690061</v>
+        <v>0.220779220779221</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -3752,13 +3503,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>569</v>
@@ -3770,13 +3521,13 @@
         <v>569</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00789740315618537</v>
+        <v>0.4186902133922</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00788285168047436</v>
+        <v>0.31008174386921</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00788285168047436</v>
+        <v>0.426856714178545</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -3793,13 +3544,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>3409</v>
@@ -3811,13 +3562,13 @@
         <v>3409</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0473150217213285</v>
+        <v>0.462049335863378</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.238408280299322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.480140845070423</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -3834,13 +3585,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
         <v>56126</v>
@@ -3852,13 +3603,13 @@
         <v>56150</v>
       </c>
       <c r="H9" t="n">
-        <v>0.77899762661522</v>
+        <v>0.283797176489624</v>
       </c>
       <c r="I9" t="n">
-        <v>0.777894766008146</v>
+        <v>0.252520709846284</v>
       </c>
       <c r="J9" t="n">
-        <v>0.777894766008146</v>
+        <v>0.290778966556535</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -3875,31 +3626,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>72049</v>
+        <v>3409</v>
       </c>
       <c r="F10" t="n">
-        <v>72182</v>
+        <v>3409</v>
       </c>
       <c r="G10" t="n">
-        <v>72182</v>
+        <v>3409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.23115298979127</v>
+        <v>0.0637124808432699</v>
       </c>
       <c r="I10" t="n">
-        <v>0.231480917303505</v>
+        <v>0.238408280299322</v>
       </c>
       <c r="J10" t="n">
-        <v>0.231480917303505</v>
+        <v>0.0576321617555071</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -3916,31 +3667,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>3409</v>
+        <v>15923</v>
       </c>
       <c r="F11" t="n">
-        <v>3409</v>
+        <v>16032</v>
       </c>
       <c r="G11" t="n">
-        <v>3409</v>
+        <v>16032</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0473150217213285</v>
+        <v>0.139766164001194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.179190557623311</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.135034744156665</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -3949,47 +3700,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15923</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16032</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16032</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.220595162228811</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.222105233991854</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.222105233991854</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4053,7 +3763,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -4071,13 +3781,13 @@
         <v>956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00335577537366348</v>
+        <v>0.511503477795613</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00335257439839525</v>
+        <v>0.302819132087425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00335257439839525</v>
+        <v>0.574864702345159</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -4094,7 +3804,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -4112,13 +3822,13 @@
         <v>46453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.162934127112278</v>
+        <v>0.299673320765437</v>
       </c>
       <c r="I3" t="n">
-        <v>0.162904956619932</v>
+        <v>0.267366167270048</v>
       </c>
       <c r="J3" t="n">
-        <v>0.162904956619932</v>
+        <v>0.303059759916493</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -4135,7 +3845,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4153,13 +3863,13 @@
         <v>21071</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0739639570067607</v>
+        <v>0.434579053747474</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0738934049671406</v>
+        <v>0.388119358997974</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0738934049671406</v>
+        <v>0.443618678681208</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -4176,7 +3886,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -4194,13 +3904,13 @@
         <v>17173</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0602389761374885</v>
+        <v>0.316734648677581</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0602235984766126</v>
+        <v>0.23180443820528</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0602235984766126</v>
+        <v>0.320792782022304</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -4217,7 +3927,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -4235,13 +3945,13 @@
         <v>811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00284679270715595</v>
+        <v>0.216151385927505</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00284407723545873</v>
+        <v>0.159740003939334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00284407723545873</v>
+        <v>0.23324705205637</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -4258,7 +3968,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -4276,13 +3986,13 @@
         <v>1260</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00442288386068618</v>
+        <v>0.348066298342541</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00441866500206906</v>
+        <v>0.281312793034159</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00441866500206906</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -4299,7 +4009,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -4317,13 +4027,13 @@
         <v>17552</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0616114742244157</v>
+        <v>0.622587968217934</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.354750692240839</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.646339667108558</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -4340,7 +4050,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -4358,13 +4068,13 @@
         <v>179878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.630626013577551</v>
+        <v>0.36599397798992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.630810018446173</v>
+        <v>0.319207686055715</v>
       </c>
       <c r="J9" t="n">
-        <v>0.630810018446173</v>
+        <v>0.371664886286388</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -4381,7 +4091,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -4390,22 +4100,22 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>284882</v>
+        <v>17552</v>
       </c>
       <c r="F10" t="n">
-        <v>285154</v>
+        <v>17552</v>
       </c>
       <c r="G10" t="n">
-        <v>285154</v>
+        <v>17552</v>
       </c>
       <c r="H10" t="n">
-        <v>0.307167956767341</v>
+        <v>0.10338023689341</v>
       </c>
       <c r="I10" t="n">
-        <v>0.307337298897093</v>
+        <v>0.354750692240839</v>
       </c>
       <c r="J10" t="n">
-        <v>0.307337298897093</v>
+        <v>0.0970796460176991</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -4422,7 +4132,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -4431,22 +4141,22 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>17552</v>
+        <v>105228</v>
       </c>
       <c r="F11" t="n">
-        <v>17552</v>
+        <v>105276</v>
       </c>
       <c r="G11" t="n">
-        <v>17552</v>
+        <v>105276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0616114742244157</v>
+        <v>0.241027438207343</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.28897605590889</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.237192514453341</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -4455,47 +4165,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>105228</v>
-      </c>
-      <c r="F12" t="n">
-        <v>105276</v>
-      </c>
-      <c r="G12" t="n">
-        <v>105276</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.36902165145851</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.369189981553827</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.369189981553827</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4559,7 +4228,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -4577,13 +4246,13 @@
         <v>324</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0128428729982559</v>
+        <v>0.527687296416938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0128326996197719</v>
+        <v>0.347639484978541</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0128326996197719</v>
+        <v>0.53910149750416</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -4600,7 +4269,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -4618,13 +4287,13 @@
         <v>698</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0276676708419217</v>
+        <v>0.224871134020619</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0276457541191381</v>
+        <v>0.16528534217381</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0276457541191381</v>
+        <v>0.232821881254169</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -4641,7 +4310,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -4659,13 +4328,13 @@
         <v>735</v>
       </c>
       <c r="H4" t="n">
-        <v>0.029134295227525</v>
+        <v>0.463430012610341</v>
       </c>
       <c r="I4" t="n">
-        <v>0.029111216730038</v>
+        <v>0.28812230497844</v>
       </c>
       <c r="J4" t="n">
-        <v>0.029111216730038</v>
+        <v>0.471153846153846</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -4682,7 +4351,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -4700,13 +4369,13 @@
         <v>1180</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0467734263516727</v>
+        <v>0.29979674796748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0467363751584284</v>
+        <v>0.163638885036749</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0467363751584284</v>
+        <v>0.302331539841148</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -4723,7 +4392,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -4741,22 +4410,22 @@
         <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00107023941652133</v>
+        <v>0.0838509316770186</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00106939163498099</v>
+        <v>0.0353866317169069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00106939163498099</v>
+        <v>0.0838509316770186</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -4764,7 +4433,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -4782,22 +4451,22 @@
         <v>339</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0134374504518789</v>
+        <v>0.536392405063291</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0134268060836502</v>
+        <v>0.462482946793997</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0134268060836502</v>
+        <v>0.536392405063291</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -4805,7 +4474,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -4823,13 +4492,13 @@
         <v>1583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0627477406056762</v>
+        <v>0.509658725048294</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.275160785677038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.533535557802494</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -4846,7 +4515,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -4864,13 +4533,13 @@
         <v>20362</v>
       </c>
       <c r="H9" t="n">
-        <v>0.806326304106548</v>
+        <v>0.270027743485591</v>
       </c>
       <c r="I9" t="n">
-        <v>0.806479721166033</v>
+        <v>0.239277068791276</v>
       </c>
       <c r="J9" t="n">
-        <v>0.806479721166033</v>
+        <v>0.277079251034182</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -4887,7 +4556,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -4896,22 +4565,22 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>25228</v>
+        <v>1583</v>
       </c>
       <c r="F10" t="n">
-        <v>25248</v>
+        <v>1583</v>
       </c>
       <c r="G10" t="n">
-        <v>25248</v>
+        <v>1583</v>
       </c>
       <c r="H10" t="n">
-        <v>0.235239267464847</v>
+        <v>0.0728922042639407</v>
       </c>
       <c r="I10" t="n">
-        <v>0.235381861575179</v>
+        <v>0.275160785677038</v>
       </c>
       <c r="J10" t="n">
-        <v>0.235381861575179</v>
+        <v>0.0666245791245791</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -4928,7 +4597,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -4937,22 +4606,22 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="F11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="G11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0627477406056762</v>
+        <v>0.153113346494939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.22042768203555</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.144658929417338</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -4961,47 +4630,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5065,7 +4693,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -5083,13 +4711,13 @@
         <v>675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00794304542245234</v>
+        <v>0.481455064194009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00793156527971987</v>
+        <v>0.279503105590062</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00793156527971987</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -5106,7 +4734,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -5124,13 +4752,13 @@
         <v>4883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0574605789597552</v>
+        <v>0.303763608087092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0573775307568476</v>
+        <v>0.235019492708283</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0573775307568476</v>
+        <v>0.316687204098839</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -5147,7 +4775,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -5165,13 +4793,13 @@
         <v>7101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0835608378441986</v>
+        <v>0.390079103493738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.083440066742653</v>
+        <v>0.311283534981589</v>
       </c>
       <c r="J4" t="n">
-        <v>0.083440066742653</v>
+        <v>0.40413180809288</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -5188,7 +4816,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -5206,13 +4834,13 @@
         <v>5914</v>
       </c>
       <c r="H5" t="n">
-        <v>0.069004471640386</v>
+        <v>0.270118384080335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0694922623174271</v>
+        <v>0.186862144143575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0694922623174271</v>
+        <v>0.276807863327873</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -5229,7 +4857,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -5247,22 +4875,22 @@
         <v>359</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00422452341727465</v>
+        <v>0.126497533474278</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00421841768210286</v>
+        <v>0.0978735005452563</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00421841768210286</v>
+        <v>0.129837251356239</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -5270,7 +4898,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -5288,13 +4916,13 @@
         <v>498</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00586020240056484</v>
+        <v>0.346555323590814</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0058517326063711</v>
+        <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0058517326063711</v>
+        <v>0.371364653243848</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -5311,7 +4939,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -5329,13 +4957,13 @@
         <v>5195</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0611320310661332</v>
+        <v>0.444396920444825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.216955523073711</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.477437735502252</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -5352,7 +4980,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -5370,13 +4998,13 @@
         <v>60478</v>
       </c>
       <c r="H9" t="n">
-        <v>0.710814309249235</v>
+        <v>0.29027607583075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.710644748128738</v>
+        <v>0.252223922862302</v>
       </c>
       <c r="J9" t="n">
-        <v>0.710644748128738</v>
+        <v>0.298705468051584</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -5393,7 +5021,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -5402,22 +5030,22 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>84980</v>
+        <v>5195</v>
       </c>
       <c r="F10" t="n">
-        <v>85103</v>
+        <v>5195</v>
       </c>
       <c r="G10" t="n">
-        <v>85103</v>
+        <v>5195</v>
       </c>
       <c r="H10" t="n">
-        <v>0.245212187316949</v>
+        <v>0.0676458715835254</v>
       </c>
       <c r="I10" t="n">
-        <v>0.245462280613201</v>
+        <v>0.216955523073711</v>
       </c>
       <c r="J10" t="n">
-        <v>0.245462280613201</v>
+        <v>0.0615324481504732</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -5434,7 +5062,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -5443,22 +5071,22 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>5195</v>
+        <v>24575</v>
       </c>
       <c r="F11" t="n">
-        <v>5195</v>
+        <v>24625</v>
       </c>
       <c r="G11" t="n">
-        <v>5195</v>
+        <v>24625</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0611320310661332</v>
+        <v>0.177485519492713</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.230299459439238</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.170724774331314</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -5467,47 +5095,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24575</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24625</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24625</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.288767728517209</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.289355251871262</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.289355251871262</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5571,7 +5158,7 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -5589,13 +5176,13 @@
         <v>262</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00363641410706602</v>
+        <v>0.296715741789354</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00362971377905849</v>
+        <v>0.148694665153235</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00362971377905849</v>
+        <v>0.316807738814994</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -5612,7 +5199,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -5630,13 +5217,13 @@
         <v>5542</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0767394412136185</v>
+        <v>0.175993124522536</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0767781441356571</v>
+        <v>0.155394795872589</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0767781441356571</v>
+        <v>0.177890479553187</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -5653,7 +5240,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -5671,13 +5258,13 @@
         <v>2377</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0316590098405252</v>
+        <v>0.289283449587825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0329306475298551</v>
+        <v>0.234071885770556</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0329306475298551</v>
+        <v>0.302417302798982</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -5694,7 +5281,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -5712,13 +5299,13 @@
         <v>3754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.052103429610404</v>
+        <v>0.205091783216783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0520074256739907</v>
+        <v>0.150938844437296</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0520074256739907</v>
+        <v>0.210178601422093</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -5735,7 +5322,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -5753,22 +5340,22 @@
         <v>119</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00165165373565213</v>
+        <v>0.207678883071553</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00164861045690061</v>
+        <v>0.134767836919592</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00164861045690061</v>
+        <v>0.220779220779221</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -5776,7 +5363,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -5794,13 +5381,13 @@
         <v>569</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00789740315618537</v>
+        <v>0.4186902133922</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00788285168047436</v>
+        <v>0.31008174386921</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00788285168047436</v>
+        <v>0.426856714178545</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -5817,7 +5404,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -5835,13 +5422,13 @@
         <v>3409</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0473150217213285</v>
+        <v>0.462049335863378</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.238408280299322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.480140845070423</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -5858,7 +5445,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -5876,13 +5463,13 @@
         <v>56150</v>
       </c>
       <c r="H9" t="n">
-        <v>0.77899762661522</v>
+        <v>0.283797176489624</v>
       </c>
       <c r="I9" t="n">
-        <v>0.777894766008146</v>
+        <v>0.252520709846284</v>
       </c>
       <c r="J9" t="n">
-        <v>0.777894766008146</v>
+        <v>0.290778966556535</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -5899,7 +5486,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -5908,22 +5495,22 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>72049</v>
+        <v>3409</v>
       </c>
       <c r="F10" t="n">
-        <v>72182</v>
+        <v>3409</v>
       </c>
       <c r="G10" t="n">
-        <v>72182</v>
+        <v>3409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.23115298979127</v>
+        <v>0.0637124808432699</v>
       </c>
       <c r="I10" t="n">
-        <v>0.231480917303505</v>
+        <v>0.238408280299322</v>
       </c>
       <c r="J10" t="n">
-        <v>0.231480917303505</v>
+        <v>0.0576321617555071</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -5940,7 +5527,7 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -5949,22 +5536,22 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>3409</v>
+        <v>15923</v>
       </c>
       <c r="F11" t="n">
-        <v>3409</v>
+        <v>16032</v>
       </c>
       <c r="G11" t="n">
-        <v>3409</v>
+        <v>16032</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0473150217213285</v>
+        <v>0.139766164001194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.179190557623311</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0472278407359175</v>
+        <v>0.135034744156665</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -5973,47 +5560,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15923</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16032</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16032</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.220595162228811</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.222105233991854</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.222105233991854</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6083,7 +5629,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>2217</v>
@@ -6095,13 +5641,13 @@
         <v>2217</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00474591074605203</v>
+        <v>0.464974832214765</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00474034984936507</v>
+        <v>0.268207113476893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00474034984936507</v>
+        <v>0.499211889214141</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
@@ -6124,7 +5670,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>57527</v>
@@ -6136,13 +5682,13 @@
         <v>57576</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123147499994648</v>
+        <v>0.279954449673215</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123107976060913</v>
+        <v>0.245624064127778</v>
       </c>
       <c r="J3" t="n">
-        <v>0.123107976060913</v>
+        <v>0.283833947084313</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -6165,7 +5711,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
         <v>31188</v>
@@ -6177,13 +5723,13 @@
         <v>31284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0667638540134735</v>
+        <v>0.409500925670619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0668908907025425</v>
+        <v>0.348343132014965</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0668908907025425</v>
+        <v>0.419981473774651</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -6206,7 +5752,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>27959</v>
@@ -6218,13 +5764,13 @@
         <v>28021</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0598515645236214</v>
+        <v>0.284917965963518</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0599140023135131</v>
+        <v>0.203323295722527</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0599140023135131</v>
+        <v>0.289886408309367</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -6247,7 +5793,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>1316</v>
@@ -6259,13 +5805,13 @@
         <v>1316</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00281714864312335</v>
+        <v>0.175818303273213</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00281384772294291</v>
+        <v>0.126648060821865</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00281384772294291</v>
+        <v>0.185273827960017</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -6288,7 +5834,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>2666</v>
@@ -6300,13 +5846,13 @@
         <v>2666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00570708076182892</v>
+        <v>0.378263337116913</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00570039363933571</v>
+        <v>0.306190421499943</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00570039363933571</v>
+        <v>0.386544874583152</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -6329,7 +5875,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>27739</v>
@@ -6341,13 +5887,13 @@
         <v>27739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0593806126227954</v>
+        <v>0.550748520827542</v>
       </c>
       <c r="I8" t="n">
-        <v>0.059311034944311</v>
+        <v>0.296756317264694</v>
       </c>
       <c r="J8" t="n">
-        <v>0.059311034944311</v>
+        <v>0.576646432729087</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -6370,7 +5916,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>316527</v>
@@ -6382,13 +5928,13 @@
         <v>316868</v>
       </c>
       <c r="H9" t="n">
-        <v>0.677586328694457</v>
+        <v>0.32562429145466</v>
       </c>
       <c r="I9" t="n">
-        <v>0.677521504767077</v>
+        <v>0.285274170852281</v>
       </c>
       <c r="J9" t="n">
-        <v>0.677521504767077</v>
+        <v>0.332482718386294</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -6411,25 +5957,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>467139</v>
+        <v>27739</v>
       </c>
       <c r="F10" t="n">
-        <v>467687</v>
+        <v>27739</v>
       </c>
       <c r="G10" t="n">
-        <v>467687</v>
+        <v>27739</v>
       </c>
       <c r="H10" t="n">
-        <v>0.275933257016484</v>
+        <v>0.0861992349309045</v>
       </c>
       <c r="I10" t="n">
-        <v>0.27614685020285</v>
+        <v>0.296756317264694</v>
       </c>
       <c r="J10" t="n">
-        <v>0.27614685020285</v>
+        <v>0.0796781735978262</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -6452,25 +5998,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>27739</v>
+        <v>150612</v>
       </c>
       <c r="F11" t="n">
-        <v>27739</v>
+        <v>150819</v>
       </c>
       <c r="G11" t="n">
-        <v>27739</v>
+        <v>150819</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0593806126227954</v>
+        <v>0.208927976917101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.059311034944311</v>
+        <v>0.258753268321472</v>
       </c>
       <c r="J11" t="n">
-        <v>0.059311034944311</v>
+        <v>0.20364956702913</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -6479,47 +6025,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>150612</v>
-      </c>
-      <c r="F12" t="n">
-        <v>150819</v>
-      </c>
-      <c r="G12" t="n">
-        <v>150819</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.322035891525743</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.322478495232923</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.322478495232923</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6583,13 +6088,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>956</v>
@@ -6601,13 +6106,13 @@
         <v>956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00335577537366348</v>
+        <v>0.511503477795613</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00335257439839525</v>
+        <v>0.302819132087425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00335257439839525</v>
+        <v>0.574864702345159</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -6624,13 +6129,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>46417</v>
@@ -6642,13 +6147,13 @@
         <v>46453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.162934127112278</v>
+        <v>0.299673320765437</v>
       </c>
       <c r="I3" t="n">
-        <v>0.162904956619932</v>
+        <v>0.267366167270048</v>
       </c>
       <c r="J3" t="n">
-        <v>0.162904956619932</v>
+        <v>0.303059759916493</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -6665,13 +6170,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
         <v>21071</v>
@@ -6683,13 +6188,13 @@
         <v>21071</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0739639570067607</v>
+        <v>0.434579053747474</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0738934049671406</v>
+        <v>0.388119358997974</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0738934049671406</v>
+        <v>0.443618678681208</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -6706,13 +6211,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>17161</v>
@@ -6724,13 +6229,13 @@
         <v>17173</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0602389761374885</v>
+        <v>0.316734648677581</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0602235984766126</v>
+        <v>0.23180443820528</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0602235984766126</v>
+        <v>0.320792782022304</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -6747,13 +6252,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>811</v>
@@ -6765,13 +6270,13 @@
         <v>811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00284679270715595</v>
+        <v>0.216151385927505</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00284407723545873</v>
+        <v>0.159740003939334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00284407723545873</v>
+        <v>0.23324705205637</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -6788,13 +6293,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>1260</v>
@@ -6806,13 +6311,13 @@
         <v>1260</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00442288386068618</v>
+        <v>0.348066298342541</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00441866500206906</v>
+        <v>0.281312793034159</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00441866500206906</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -6829,13 +6334,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>17552</v>
@@ -6847,13 +6352,13 @@
         <v>17552</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0616114742244157</v>
+        <v>0.622587968217934</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.354750692240839</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.646339667108558</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -6870,13 +6375,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>179654</v>
@@ -6888,13 +6393,13 @@
         <v>179878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.630626013577551</v>
+        <v>0.36599397798992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.630810018446173</v>
+        <v>0.319207686055715</v>
       </c>
       <c r="J9" t="n">
-        <v>0.630810018446173</v>
+        <v>0.371664886286388</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -6911,31 +6416,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>284882</v>
+        <v>17552</v>
       </c>
       <c r="F10" t="n">
-        <v>285154</v>
+        <v>17552</v>
       </c>
       <c r="G10" t="n">
-        <v>285154</v>
+        <v>17552</v>
       </c>
       <c r="H10" t="n">
-        <v>0.307167956767341</v>
+        <v>0.10338023689341</v>
       </c>
       <c r="I10" t="n">
-        <v>0.307337298897093</v>
+        <v>0.354750692240839</v>
       </c>
       <c r="J10" t="n">
-        <v>0.307337298897093</v>
+        <v>0.0970796460176991</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -6952,31 +6457,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>17552</v>
+        <v>105228</v>
       </c>
       <c r="F11" t="n">
-        <v>17552</v>
+        <v>105276</v>
       </c>
       <c r="G11" t="n">
-        <v>17552</v>
+        <v>105276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0616114742244157</v>
+        <v>0.241027438207343</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.28897605590889</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0615527048542191</v>
+        <v>0.237192514453341</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -6985,47 +6490,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>105228</v>
-      </c>
-      <c r="F12" t="n">
-        <v>105276</v>
-      </c>
-      <c r="G12" t="n">
-        <v>105276</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.36902165145851</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.369189981553827</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.369189981553827</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7089,13 +6553,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>324</v>
@@ -7107,13 +6571,13 @@
         <v>324</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0128428729982559</v>
+        <v>0.527687296416938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0128326996197719</v>
+        <v>0.347639484978541</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0128326996197719</v>
+        <v>0.53910149750416</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -7130,13 +6594,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>698</v>
@@ -7148,13 +6612,13 @@
         <v>698</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0276676708419217</v>
+        <v>0.224871134020619</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0276457541191381</v>
+        <v>0.16528534217381</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0276457541191381</v>
+        <v>0.232821881254169</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -7171,13 +6635,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
         <v>735</v>
@@ -7189,13 +6653,13 @@
         <v>735</v>
       </c>
       <c r="H4" t="n">
-        <v>0.029134295227525</v>
+        <v>0.463430012610341</v>
       </c>
       <c r="I4" t="n">
-        <v>0.029111216730038</v>
+        <v>0.28812230497844</v>
       </c>
       <c r="J4" t="n">
-        <v>0.029111216730038</v>
+        <v>0.471153846153846</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -7212,13 +6676,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>1180</v>
@@ -7230,13 +6694,13 @@
         <v>1180</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0467734263516727</v>
+        <v>0.29979674796748</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0467363751584284</v>
+        <v>0.163638885036749</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0467363751584284</v>
+        <v>0.302331539841148</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -7253,13 +6717,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
@@ -7271,22 +6735,22 @@
         <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00107023941652133</v>
+        <v>0.0838509316770186</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00106939163498099</v>
+        <v>0.0353866317169069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00106939163498099</v>
+        <v>0.0838509316770186</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -7294,13 +6758,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>339</v>
@@ -7312,22 +6776,22 @@
         <v>339</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0134374504518789</v>
+        <v>0.536392405063291</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0134268060836502</v>
+        <v>0.462482946793997</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0134268060836502</v>
+        <v>0.536392405063291</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -7335,13 +6799,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>1583</v>
@@ -7353,13 +6817,13 @@
         <v>1583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0627477406056762</v>
+        <v>0.509658725048294</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.275160785677038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.533535557802494</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -7376,13 +6840,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>20342</v>
@@ -7394,13 +6858,13 @@
         <v>20362</v>
       </c>
       <c r="H9" t="n">
-        <v>0.806326304106548</v>
+        <v>0.270027743485591</v>
       </c>
       <c r="I9" t="n">
-        <v>0.806479721166033</v>
+        <v>0.239277068791276</v>
       </c>
       <c r="J9" t="n">
-        <v>0.806479721166033</v>
+        <v>0.277079251034182</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -7417,31 +6881,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>25228</v>
+        <v>1583</v>
       </c>
       <c r="F10" t="n">
-        <v>25248</v>
+        <v>1583</v>
       </c>
       <c r="G10" t="n">
-        <v>25248</v>
+        <v>1583</v>
       </c>
       <c r="H10" t="n">
-        <v>0.235239267464847</v>
+        <v>0.0728922042639407</v>
       </c>
       <c r="I10" t="n">
-        <v>0.235381861575179</v>
+        <v>0.275160785677038</v>
       </c>
       <c r="J10" t="n">
-        <v>0.235381861575179</v>
+        <v>0.0666245791245791</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -7458,31 +6922,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="F11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="G11" t="n">
-        <v>1583</v>
+        <v>4886</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0627477406056762</v>
+        <v>0.153113346494939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.22042768203555</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0626980354879594</v>
+        <v>0.144658929417338</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -7491,47 +6955,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4886</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.193520278833967</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7595,13 +7018,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>675</v>
@@ -7613,13 +7036,13 @@
         <v>675</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00794304542245234</v>
+        <v>0.481455064194009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00793156527971987</v>
+        <v>0.279503105590062</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00793156527971987</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
@@ -7636,13 +7059,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>4883</v>
@@ -7654,13 +7077,13 @@
         <v>4883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0574605789597552</v>
+        <v>0.303763608087092</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0573775307568476</v>
+        <v>0.235019492708283</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0573775307568476</v>
+        <v>0.316687204098839</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -7677,13 +7100,13 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
         <v>7101</v>
@@ -7695,13 +7118,13 @@
         <v>7101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0835608378441986</v>
+        <v>0.390079103493738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.083440066742653</v>
+        <v>0.311283534981589</v>
       </c>
       <c r="J4" t="n">
-        <v>0.083440066742653</v>
+        <v>0.40413180809288</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -7718,13 +7141,13 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>5864</v>
@@ -7736,13 +7159,13 @@
         <v>5914</v>
       </c>
       <c r="H5" t="n">
-        <v>0.069004471640386</v>
+        <v>0.270118384080335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0694922623174271</v>
+        <v>0.186862144143575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0694922623174271</v>
+        <v>0.276807863327873</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -7759,13 +7182,13 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>359</v>
@@ -7777,22 +7200,22 @@
         <v>359</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00422452341727465</v>
+        <v>0.126497533474278</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00421841768210286</v>
+        <v>0.0978735005452563</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00421841768210286</v>
+        <v>0.129837251356239</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -7800,13 +7223,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>498</v>
@@ -7818,13 +7241,13 @@
         <v>498</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00586020240056484</v>
+        <v>0.346555323590814</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0058517326063711</v>
+        <v>0.3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0058517326063711</v>
+        <v>0.371364653243848</v>
       </c>
       <c r="K7" t="s">
         <v>21</v>
@@ -7841,13 +7264,13 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>5195</v>
@@ -7859,13 +7282,13 @@
         <v>5195</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0611320310661332</v>
+        <v>0.444396920444825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.216955523073711</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.477437735502252</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
@@ -7882,13 +7305,13 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>60405</v>
@@ -7900,13 +7323,13 @@
         <v>60478</v>
       </c>
       <c r="H9" t="n">
-        <v>0.710814309249235</v>
+        <v>0.29027607583075</v>
       </c>
       <c r="I9" t="n">
-        <v>0.710644748128738</v>
+        <v>0.252223922862302</v>
       </c>
       <c r="J9" t="n">
-        <v>0.710644748128738</v>
+        <v>0.298705468051584</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -7923,31 +7346,31 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>84980</v>
+        <v>5195</v>
       </c>
       <c r="F10" t="n">
-        <v>85103</v>
+        <v>5195</v>
       </c>
       <c r="G10" t="n">
-        <v>85103</v>
+        <v>5195</v>
       </c>
       <c r="H10" t="n">
-        <v>0.245212187316949</v>
+        <v>0.0676458715835254</v>
       </c>
       <c r="I10" t="n">
-        <v>0.245462280613201</v>
+        <v>0.216955523073711</v>
       </c>
       <c r="J10" t="n">
-        <v>0.245462280613201</v>
+        <v>0.0615324481504732</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -7964,31 +7387,31 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>5195</v>
+        <v>24575</v>
       </c>
       <c r="F11" t="n">
-        <v>5195</v>
+        <v>24625</v>
       </c>
       <c r="G11" t="n">
-        <v>5195</v>
+        <v>24625</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0611320310661332</v>
+        <v>0.177485519492713</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.230299459439238</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0610436764861403</v>
+        <v>0.170724774331314</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -7997,47 +7420,6 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24575</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24625</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24625</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.288767728517209</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.289355251871262</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.289355251871262</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
         <v>16</v>
       </c>
     </row>
